--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1099"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1101"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1099.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1101"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1161"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1161.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1161"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1179"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1161.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1179.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1179"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1181"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1179.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1181.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1181"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1183"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1181.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1183.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1183"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1185"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1183.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1185.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1185"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1191"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1185.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1191.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1191"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1193"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1191.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1193.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1193"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1195"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1193.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1195.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1195"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1197"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1195.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1197.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1197"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1229"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1197.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1229.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1229"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1307"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1229.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1307.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1307"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1377"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1307.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1377.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1377"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1385"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1377.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1385.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1385"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1403"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1385.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1403.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1403"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1451"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1403.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1451.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1451"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1455"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1451.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1455.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1455"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1463"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1455.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1463.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1463"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1467"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1463.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1467.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1467"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1471"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1467.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1471.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1471"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1481"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1471.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1481.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1481"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1577"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1481.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1577.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1577"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1585"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1577.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1585.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/tracker_data.xlsx
+++ b/src/test/resources/testData/tracker_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracker" r:id="rId6" sheetId="1585"/>
+    <sheet name="Tracker" r:id="rId6" sheetId="1589"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5676,7 +5676,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1585.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1589.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
